--- a/General.Mvc/wwwroot/Files/importfile/lsdr.xlsx
+++ b/General.Mvc/wwwroot/Files/importfile/lsdr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="575">
   <si>
     <t>A</t>
   </si>
@@ -24,9 +24,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -94,105 +91,6 @@
   </si>
   <si>
     <t>Z</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>危化品</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电气件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机物料</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金属</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非金属（普）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成品件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>低温料</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外协件</t>
-    </r>
   </si>
   <si>
     <r>
@@ -287,34 +185,3431 @@
     </r>
   </si>
   <si>
+    <t>803335</t>
+  </si>
+  <si>
+    <t>A &amp; M Engineering, Inc.</t>
+  </si>
+  <si>
+    <t>800803</t>
+  </si>
+  <si>
+    <t>A.E. Petsche Company, Inc.</t>
+  </si>
+  <si>
+    <t>803153</t>
+  </si>
+  <si>
+    <t>AAA Air Support Inc.</t>
+  </si>
+  <si>
+    <t>800808</t>
+  </si>
+  <si>
+    <t>Adept Fasteners, Inc.</t>
+  </si>
+  <si>
+    <t>802355</t>
+  </si>
+  <si>
+    <t>AEHI, Inc.</t>
+  </si>
+  <si>
+    <t>801547</t>
+  </si>
+  <si>
+    <t>Aero Fastener Co., Inc.</t>
+  </si>
+  <si>
+    <t>255100</t>
+  </si>
+  <si>
+    <t>Aeromats Ltd.</t>
+  </si>
+  <si>
+    <t>803365</t>
+  </si>
+  <si>
+    <t>AeroSpace Technology Of Korea Inc.</t>
+  </si>
+  <si>
+    <t>803358</t>
+  </si>
+  <si>
+    <t>AeroTek Manufacturing Limited</t>
+  </si>
+  <si>
+    <t>800124</t>
+  </si>
+  <si>
+    <t>AI Systems International Corp.</t>
+  </si>
+  <si>
+    <t>800594</t>
+  </si>
+  <si>
+    <t>Akzo Nobel Aerospace Coatings</t>
+  </si>
+  <si>
+    <t>803368</t>
+  </si>
+  <si>
+    <t>The Gill Corporation - France</t>
+  </si>
+  <si>
+    <t>802269</t>
+  </si>
+  <si>
+    <t>The Gill Corporation – Maryland</t>
+  </si>
+  <si>
+    <t>128375</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aleris Aluminum (Zhenjiang) Co., Ltd.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爱励铝业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇江</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有限公司</t>
+    </r>
+  </si>
+  <si>
+    <t>801872</t>
+  </si>
+  <si>
+    <t>Align Aerospace LLC</t>
+  </si>
+  <si>
+    <t>801077</t>
+  </si>
+  <si>
+    <t>All  Metal  Services Limited.</t>
+  </si>
+  <si>
+    <t>803357</t>
+  </si>
+  <si>
+    <t>ALPHACASTING INC.</t>
+  </si>
+  <si>
+    <t>256346</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">润航有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RUNHANG COMPANY LIMITED</t>
+    </r>
+  </si>
+  <si>
+    <t>800841</t>
+  </si>
+  <si>
+    <t>Aluminum Precision Products, Inc.</t>
+  </si>
+  <si>
+    <t>800446</t>
+  </si>
+  <si>
+    <t>AMAG Rolling GmbH</t>
+  </si>
+  <si>
+    <t>803334</t>
+  </si>
+  <si>
+    <t>American Aerospace Technical Casting Inc.</t>
+  </si>
+  <si>
+    <t>800253</t>
+  </si>
+  <si>
+    <t>AmEuro Metals B.V.</t>
+  </si>
+  <si>
+    <t>229411</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">安茂福工业有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AMF industrial Co,LTD.</t>
+    </r>
+  </si>
+  <si>
+    <t>803191</t>
+  </si>
+  <si>
+    <t>AMI Metals Europe,SPRL.</t>
+  </si>
+  <si>
+    <t>800605</t>
+  </si>
+  <si>
+    <t>AMI Metals,INC.</t>
+  </si>
+  <si>
+    <t>800401</t>
+  </si>
+  <si>
+    <t>Argosy International  Inc.</t>
+  </si>
+  <si>
+    <t>802268</t>
+  </si>
+  <si>
+    <t>Armor Aerospace,Inc</t>
+  </si>
+  <si>
+    <t>803369</t>
+  </si>
+  <si>
+    <t>Asco Deutschland GmbH</t>
+  </si>
+  <si>
+    <t>803333</t>
+  </si>
+  <si>
+    <t>Asko Processing Inc.</t>
+  </si>
+  <si>
+    <t>802980</t>
+  </si>
+  <si>
+    <t>ASMP-Aluminium Silicon Mill Products GmbH.</t>
+  </si>
+  <si>
+    <t>803180</t>
+  </si>
+  <si>
+    <t>ATI Specialty Materials Ltd</t>
+  </si>
+  <si>
+    <t>803298</t>
+  </si>
+  <si>
+    <t>Atlantic Precsion Engineering Ltd</t>
+  </si>
+  <si>
+    <t>800254</t>
+  </si>
+  <si>
+    <t>Aubert &amp; Duval.</t>
+  </si>
+  <si>
+    <t>801207</t>
+  </si>
+  <si>
+    <t>Avibank Mfg., Inc.</t>
+  </si>
+  <si>
+    <t>800015</t>
+  </si>
+  <si>
+    <t>B/E Aerospace Inc</t>
+  </si>
+  <si>
+    <t>801533</t>
+  </si>
+  <si>
+    <t>Blue Sky Industries,Inc</t>
+  </si>
+  <si>
+    <t>212737</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">天津波音复合材料有限责任公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Boeing Tianjin Composites Co,.Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>800607</t>
+  </si>
+  <si>
+    <t>BRALCO METALS</t>
+  </si>
+  <si>
+    <t>803297</t>
+  </si>
+  <si>
+    <t>C&amp;F Millier Limited</t>
+  </si>
+  <si>
+    <t>803356</t>
+  </si>
+  <si>
+    <t>Canadian Plastics Group Ltd.(CPG Aerospace)</t>
+  </si>
+  <si>
+    <t>803332</t>
+  </si>
+  <si>
+    <t>Capps Manufacturing, Inc.</t>
+  </si>
+  <si>
+    <t>802311</t>
+  </si>
+  <si>
+    <t>Carlisle Interconnect Technologies</t>
+  </si>
+  <si>
+    <t>801535</t>
+  </si>
+  <si>
+    <t>Cascade Gasket&amp;Manufacturing Co, Inc.</t>
+  </si>
+  <si>
+    <t>800262</t>
+  </si>
+  <si>
+    <t>CBOL Corporation</t>
+  </si>
+  <si>
+    <t>800562</t>
+  </si>
+  <si>
+    <t>Charles Engineering,Inc</t>
+  </si>
+  <si>
+    <t>801552</t>
+  </si>
+  <si>
+    <t>Consolidated Industies,INC</t>
+  </si>
+  <si>
+    <t>802941</t>
+  </si>
+  <si>
+    <t>Consolidated Precision Products(CPP)</t>
+  </si>
+  <si>
+    <t>803198</t>
+  </si>
+  <si>
+    <t>CONSTELLIUM ISSOIRE</t>
+  </si>
+  <si>
+    <t>803216</t>
+  </si>
+  <si>
+    <t>Continental Forge Co</t>
+  </si>
+  <si>
+    <t>803355</t>
+  </si>
+  <si>
+    <t>Coordinate Industries Ltd.</t>
+  </si>
+  <si>
+    <t>802923</t>
+  </si>
+  <si>
+    <t>AERO COTEC Corp.Sacheon Plant</t>
+  </si>
+  <si>
+    <t>803354</t>
+  </si>
+  <si>
+    <t>Cyclone Manufacturing.Inc.</t>
+  </si>
+  <si>
+    <t>251449</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">北京塞方德驰科技有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cyphen Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>803331</t>
+  </si>
+  <si>
+    <t>DANNER CORPORATION</t>
+  </si>
+  <si>
+    <t>800283</t>
+  </si>
+  <si>
+    <t>Darchem Engineering Ltd.</t>
+  </si>
+  <si>
+    <t>803353</t>
+  </si>
+  <si>
+    <t>Dellcom Aerospace Inc.</t>
+  </si>
+  <si>
+    <t>803296</t>
+  </si>
+  <si>
+    <t>Dontaur Engineering Ltd</t>
+  </si>
+  <si>
+    <t>800483</t>
+  </si>
+  <si>
+    <t>Ducommun AeroStructures</t>
+  </si>
+  <si>
+    <t>803330</t>
+  </si>
+  <si>
+    <t>Electrolizing Inc</t>
+  </si>
+  <si>
+    <t>803352</t>
+  </si>
+  <si>
+    <t>English Plastics</t>
+  </si>
+  <si>
+    <t>801176</t>
+  </si>
+  <si>
+    <t>Kirkhill Inc.</t>
+  </si>
+  <si>
+    <t>238364</t>
+  </si>
+  <si>
+    <t>Everlead Material Company Limited</t>
+  </si>
+  <si>
+    <t>802291</t>
+  </si>
+  <si>
+    <t>Evonik Resource Efficiency GmbH</t>
+  </si>
+  <si>
+    <t>803329</t>
+  </si>
+  <si>
+    <t>Exacta Aerospace, Inc.</t>
+  </si>
+  <si>
+    <t>803351</t>
+  </si>
+  <si>
+    <t>Noranco Inc. - Vaughan Division</t>
+  </si>
+  <si>
+    <t>803350</t>
+  </si>
+  <si>
+    <t>Field Aviation Manufacturing and Distribution</t>
+  </si>
+  <si>
+    <t>803370</t>
+  </si>
+  <si>
+    <t>Gerard Daniel Worldwide Ltd.-Europe</t>
+  </si>
+  <si>
+    <t>803328</t>
+  </si>
+  <si>
+    <t>Hansen Engineering Co.</t>
+  </si>
+  <si>
+    <t>801156</t>
+  </si>
+  <si>
+    <t>Hartwell Corp.</t>
+  </si>
+  <si>
+    <t>802991</t>
+  </si>
+  <si>
+    <t>Henkel US Operations Corporation</t>
+  </si>
+  <si>
+    <t>231429</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汉高香港控股有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Henkel Hong Kong Holding Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>800010</t>
+  </si>
+  <si>
+    <t>Honeywell Aerospace</t>
+  </si>
+  <si>
+    <t>801576</t>
+  </si>
+  <si>
+    <t>Hurlen Corporation</t>
+  </si>
+  <si>
+    <t>260962</t>
+  </si>
+  <si>
+    <t>ISP High-Tech &amp; Electronics Co.,Ltd</t>
+  </si>
+  <si>
+    <t>213144</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">嘉业国际科技有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Jiaye International Tech Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>802603</t>
+  </si>
+  <si>
+    <t>JPR SAS</t>
+  </si>
+  <si>
+    <t>801645</t>
+  </si>
+  <si>
+    <t>Kaiser Aluminum Washington</t>
+  </si>
+  <si>
+    <t>800692</t>
+  </si>
+  <si>
+    <t>Kamatics Corporation</t>
+  </si>
+  <si>
+    <t>803295</t>
+  </si>
+  <si>
+    <t>Kemfast Pass Ltd</t>
+  </si>
+  <si>
+    <t>252005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">沈阳凯润捷航空材料有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kemfast Pass(Shenyang)Co.,LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>Boeing Distribution Services Inc.(KLX, Inc.)</t>
+  </si>
+  <si>
+    <t>803327</t>
+  </si>
+  <si>
+    <t>L.H Thomson company, Inc</t>
+  </si>
+  <si>
+    <t>802767</t>
+  </si>
+  <si>
+    <t>SOCIETE LAMECO</t>
+  </si>
+  <si>
+    <t>801133</t>
+  </si>
+  <si>
+    <t>Lamsco West, Inc.</t>
+  </si>
+  <si>
+    <t>803294</t>
+  </si>
+  <si>
+    <t>Lee Spring Limited</t>
+  </si>
+  <si>
+    <t>800214</t>
+  </si>
+  <si>
+    <t>LEKI AVIATION PTE LTD</t>
+  </si>
+  <si>
+    <t>800305</t>
+  </si>
+  <si>
+    <t>Lisi Aerospace S.A.S-B.G.Fasteners</t>
+  </si>
+  <si>
+    <t>801103</t>
+  </si>
+  <si>
+    <t>LOOS&amp;CO., INC.</t>
+  </si>
+  <si>
+    <t>801121</t>
+  </si>
+  <si>
+    <t>Mankiewicz Gebr.&amp;Co.(Gmbh &amp; Co. KG)</t>
+  </si>
+  <si>
+    <t>803326</t>
+  </si>
+  <si>
+    <t>Master Research &amp; MFG., Inc.</t>
+  </si>
+  <si>
+    <t>803325</t>
+  </si>
+  <si>
+    <t>Maynard Inc.</t>
+  </si>
+  <si>
+    <t>210032</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">天津美隆航科技发展有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Melongtech, Inc.</t>
+    </r>
+  </si>
+  <si>
+    <t>800721</t>
+  </si>
+  <si>
+    <t>Metalmart International Inc</t>
+  </si>
+  <si>
+    <t>803305</t>
+  </si>
+  <si>
+    <t>MinebeaMitsumi Inc</t>
+  </si>
+  <si>
+    <t>800339</t>
+  </si>
+  <si>
+    <t>MJ Sections Ltd</t>
+  </si>
+  <si>
+    <t>803324</t>
+  </si>
+  <si>
+    <t>Neill Aircraft Company</t>
+  </si>
+  <si>
+    <t>803304</t>
+  </si>
+  <si>
+    <t>Nippon Precision Casting Corporation</t>
+  </si>
+  <si>
+    <t>261194</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">恩福贸易（上海）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOK-Freudenberg Group Trading (China)Co.,Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>803323</t>
+  </si>
+  <si>
+    <t>The NORDAM Group LLC-Transparency Division</t>
+  </si>
+  <si>
+    <t>245307</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧斯泰国际实业有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ostech Internation Industrial Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>800426</t>
+  </si>
+  <si>
+    <t>Peerless Aerospace Fastener Corp.</t>
+  </si>
+  <si>
+    <t>803349</t>
+  </si>
+  <si>
+    <t>Plastiques Flexibulb Inc.</t>
+  </si>
+  <si>
+    <t>204307</t>
+  </si>
+  <si>
+    <r>
+      <t>PPG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">航空材料（苏州）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PPG AEROSPACE MATERIALS (SUZHOU)CO.LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>225977</t>
+  </si>
+  <si>
+    <r>
+      <t>PPG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">航空材料（天津）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PPG Aerospace Materials (Tianjin) Co.,Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>225982</t>
+  </si>
+  <si>
+    <r>
+      <t>PPG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涂料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PPG Coatings (Hong Kong) Co., Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>800644</t>
+  </si>
+  <si>
+    <t>Precision Coil Spring</t>
+  </si>
+  <si>
+    <t>800637</t>
+  </si>
+  <si>
+    <t>University Swaging Corporation</t>
+  </si>
+  <si>
+    <t>803322</t>
+  </si>
+  <si>
+    <t>Product Manufacturing Company</t>
+  </si>
+  <si>
+    <t>800609</t>
+  </si>
+  <si>
+    <t>Quality Aluminum Forge,LLC</t>
+  </si>
+  <si>
+    <t>803367</t>
+  </si>
+  <si>
+    <t>Recaero Composites</t>
+  </si>
+  <si>
+    <t>801899</t>
+  </si>
+  <si>
+    <t>Rexnord Industries LLC, ADG</t>
+  </si>
+  <si>
+    <t>RTI Claro, Inc.</t>
+  </si>
+  <si>
+    <t>803321</t>
+  </si>
+  <si>
+    <t>RTI Remmele Engineering Inc.</t>
+  </si>
+  <si>
+    <t>803364</t>
+  </si>
+  <si>
+    <t>S&amp;K Aerospace Co,.Ltd</t>
+  </si>
+  <si>
+    <t>800218</t>
+  </si>
+  <si>
+    <t>Satair Pte.Ltd.</t>
+  </si>
+  <si>
+    <t>800379</t>
+  </si>
+  <si>
+    <t>SERVICE CENTRES AERO FRANCE</t>
+  </si>
+  <si>
+    <t>801175</t>
+  </si>
+  <si>
+    <t>Service Steel Aerospace Corporation</t>
+  </si>
+  <si>
+    <t>803348</t>
+  </si>
+  <si>
+    <t>Shellcast Foundries Inc</t>
+  </si>
+  <si>
+    <t>801992</t>
+  </si>
+  <si>
+    <t>Spirit AeroSystems (Europe) Limited</t>
+  </si>
+  <si>
+    <t>803320</t>
+  </si>
+  <si>
+    <t>Spirit Aerosystems,Inc</t>
+  </si>
+  <si>
+    <t>803293</t>
+  </si>
+  <si>
+    <t>Springco (NI) Ltd</t>
+  </si>
+  <si>
+    <t>803347</t>
+  </si>
+  <si>
+    <t>Stelia Aerospace North America Inc.</t>
+  </si>
+  <si>
+    <t>203392</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">苏州美德航空航天材料有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Suzhou Meide Aircraft &amp; Aerospace material Co.,Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>803292</t>
+  </si>
+  <si>
+    <t>Swift Aerospace Services Ltd.</t>
+  </si>
+  <si>
+    <t>803302</t>
+  </si>
+  <si>
+    <r>
+      <t>Turkish Aerospace Industries,Inc.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>803345</t>
+  </si>
+  <si>
+    <t>Tempo Aerospace Inc.</t>
+  </si>
+  <si>
+    <t>800182</t>
+  </si>
+  <si>
+    <t>The Gill Corporation</t>
+  </si>
+  <si>
+    <t>217109</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">蒂森克虏伯航空材料（苏州）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ThyssenKrupp Aerospace (Suzhou) Co., Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>223748</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">堤埃（上海）贸易有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TI(Shanghai) Trading Co.,Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>802055</t>
+  </si>
+  <si>
+    <t>TIMET-North American Service Centers</t>
+  </si>
+  <si>
+    <t>801630</t>
+  </si>
+  <si>
+    <t>Timet UK Limited</t>
+  </si>
+  <si>
+    <t>800318</t>
+  </si>
+  <si>
+    <t>TITAL GmbH</t>
+  </si>
+  <si>
+    <t>803319</t>
+  </si>
+  <si>
+    <t>thyssenkrupp Materials, LLC d/b/a thyssenkrupp Aerospace, TKMX Aerospace</t>
+  </si>
+  <si>
+    <t>206033</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">英之冠航空器材供应有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Topcast Aviation Supplies Company Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>803318</t>
+  </si>
+  <si>
+    <t>Toray Composites Materials America, Inc.</t>
+  </si>
+  <si>
+    <t>800390</t>
+  </si>
+  <si>
+    <t>Trelleborg Sealing Solutions</t>
+  </si>
+  <si>
+    <t>803317</t>
+  </si>
+  <si>
+    <t>Triumph Fabrication-Fort Worth,Inc.</t>
+  </si>
+  <si>
+    <t>803316</t>
+  </si>
+  <si>
+    <t>ALATUS Aerosystems</t>
+  </si>
+  <si>
+    <t>803315</t>
+  </si>
+  <si>
+    <r>
+      <t>Tuffer Manufacturing Co.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Inc.</t>
+    </r>
+  </si>
+  <si>
+    <t>803291</t>
+  </si>
+  <si>
+    <t>TW Metals Ltd</t>
+  </si>
+  <si>
+    <t>216067</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">泰博威廉航空材料（苏州）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TW  Metals(Suzhou)Co.,Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>802180</t>
+  </si>
+  <si>
+    <t>Unical Aviation,Inc.</t>
+  </si>
+  <si>
+    <t>801912</t>
+  </si>
+  <si>
+    <t>Uniqe Aviation,Inc.</t>
+  </si>
+  <si>
+    <t>803306</t>
+  </si>
+  <si>
+    <t>SIMRA MAROC</t>
+  </si>
+  <si>
+    <t>800447</t>
+  </si>
+  <si>
+    <t>Universal Alloy Corporation</t>
+  </si>
+  <si>
+    <t>802764</t>
+  </si>
+  <si>
+    <t>UNIVERSAL ALLOY CORPORATION EUROPE SRL</t>
+  </si>
+  <si>
+    <t>212744</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维斯伯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒂锐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">金属材料有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vsmpo-Tirus(Beijing)Metallic Materials Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>800225</t>
+  </si>
+  <si>
+    <t>W.S. Wilson Corporation</t>
+  </si>
+  <si>
+    <t>800650</t>
+  </si>
+  <si>
+    <t>Weber Metals, Inc.</t>
+  </si>
+  <si>
+    <t>803154</t>
+  </si>
+  <si>
+    <t>Wesco Aircraft Hardware Corp.</t>
+  </si>
+  <si>
+    <t>217441</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">伟司科航空部件贸易（上海）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wesco Aircraft Hardware Corp(China)</t>
+    </r>
+  </si>
+  <si>
+    <t>803314</t>
+  </si>
+  <si>
+    <t>Wesco Manufacturing Inc</t>
+  </si>
+  <si>
+    <t>800250</t>
+  </si>
+  <si>
+    <t>Wilsons LTD</t>
+  </si>
+  <si>
+    <t>801055</t>
+  </si>
+  <si>
+    <t>WireMasters Inc</t>
+  </si>
+  <si>
+    <t>206053</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新集建科技发展有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>XINJIJIAN Technology Development Co,Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>204195</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艾蒙凯瑟金属材料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A.M.Castle Metal Materials(Shanghai) Co., Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>228731</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">北京捷睿罗科技有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GYRO TECHNOLOGY CO.,LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>220232</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都润航电子科技有限公司</t>
+    </r>
+  </si>
+  <si>
+    <t>205691</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大连长之琳科技发展有限公司</t>
+    </r>
+  </si>
+  <si>
+    <t>221049</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东方蓝天钛金科技有限公司</t>
+    </r>
+  </si>
+  <si>
+    <t>203192</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">广州汉高表面技术有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Guangzhou Henkel Surface Technologies Co.,Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>201059</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州凯恒科塑有限公司</t>
+    </r>
+  </si>
+  <si>
+    <t>133017</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贵州安吉航空精密铸造有限责任公司</t>
+    </r>
+  </si>
+  <si>
+    <t>261197</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海尔曼太通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无锡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">电器配件有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HellermannTyton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wuxi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Elect.Acc.co.,Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>252539</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒圣凯科技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HENG KAY(HONGKONG) CO.,LIMITED</t>
+    </r>
+  </si>
+  <si>
+    <t>248084</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氰特工程材料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cytec Engineered Materials(shanghai)Co.Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>257402</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>润贝航空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LUBAIR AVIATION HK CO.,LIMITED</t>
+    </r>
+  </si>
+  <si>
+    <t>131148</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">陕西宏远航空锻造有限责任公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shaanxi Hongyuan Avition Forging Co.,Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>237465</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">陕西融天航空器材有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shaanxi Roytech Aerospace machinery Co.,Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>201694</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海浩略实业有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>STRATEGYTECH INDUSTRY CO.,LTD.</t>
+    </r>
+  </si>
+  <si>
+    <t>216899</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">上海赛蒙金属材料有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shanghai Simon Metal Company Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>204312</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">深圳市润贝化工有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shenzhen Lubair Aviation Co.,Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>222599</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斯凯孚分拔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SKF Distribution (Shanghai)Co., Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>223719</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">西安金耘特殊金属有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xi'an Goldway Special Metal Corp.,Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>243984</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优聂金属材料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Universal Steels&amp;Aluminium Shanghai LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>800569</t>
+  </si>
+  <si>
+    <t>FUTURE METALS LLC</t>
+  </si>
+  <si>
+    <t>201429</t>
+  </si>
+  <si>
+    <t>西安立远新材料科技开发有限公司</t>
+  </si>
+  <si>
+    <t>249967</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">深圳市沃尔核材股份有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SHENZHEN WOER HEAT-SHRINKABLE MATERIAL CO.,LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>200285</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">宝鸡钛业股份有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BAOJI TITANIUM INDUSTRY CO.,LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>123537</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贵州航天电器股份有限公司</t>
+    </r>
+  </si>
+  <si>
+    <t>802860</t>
+  </si>
+  <si>
+    <t>Kamensk Uralsky Metallurgical Works Joint Stock Company(KUMZ)</t>
+  </si>
+  <si>
+    <t>230144</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">上海玥涵国际贸易有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shanghai Yuehan International Trading Co., Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>803363</t>
+  </si>
+  <si>
+    <t>Sacheon Aerospace Manufacturing Ind. Co., Ltd(SAMCO)</t>
+  </si>
+  <si>
+    <t>803362</t>
+  </si>
+  <si>
+    <t>COTEC Corp.Changwon Plant</t>
+  </si>
+  <si>
+    <t>131841</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">中航国际航空发展有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AVIC International Aero-development Corporation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>803344</t>
+  </si>
+  <si>
+    <t>MERCO INDUSTRIES LTD.</t>
+  </si>
+  <si>
+    <t>803313</t>
+  </si>
+  <si>
+    <t>Dynamic N/C LLC</t>
+  </si>
+  <si>
+    <t>260961</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">矽卓科技（香港）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>XIZHUO TECHNOLOGY (HONGKONG) CO., LTD.</t>
+    </r>
+  </si>
+  <si>
+    <t>802691</t>
+  </si>
+  <si>
+    <t>Kaneka Aerospace LLC(KAE)</t>
+  </si>
+  <si>
+    <t>252006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新材料有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADVANCED COMPOSITE TECHNOLOGY MATERIALS CO.,LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>227655</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">西安申力电子科技有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SUNYATA MROTECH CO.,LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>803290</t>
+  </si>
+  <si>
+    <t>Electro Enterprises, Ltd.</t>
+  </si>
+  <si>
+    <t>802960</t>
+  </si>
+  <si>
+    <t>Cytec Engineered Materials, Inc.</t>
+  </si>
+  <si>
+    <t>260960</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祐嘉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚洲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Uplus (Asia) Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>260959</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">方科信有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FOCUSING ELECTRIC LIMITED</t>
+    </r>
+  </si>
+  <si>
+    <t>260958</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">香港科爱工贸有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Keyair(Hongkong)Industry &amp; Trade Co., Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>260957</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">香港鸿盛航空科技有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hausen Aviation Technology Hong Kong Co., Limited </t>
+    </r>
+  </si>
+  <si>
+    <t>261411</t>
+  </si>
+  <si>
+    <t>Arconic Fastening Systems Hong Kong Operations</t>
+  </si>
+  <si>
+    <t>800203</t>
+  </si>
+  <si>
+    <t>Seal Dynamics LLC</t>
+  </si>
+  <si>
+    <t>240004</t>
+  </si>
+  <si>
+    <t>北京恩达熙航空科技有限公司
+D &amp; M Aerospace Services Limited</t>
+  </si>
+  <si>
+    <t>803361</t>
+  </si>
+  <si>
+    <t>HizeAero Co.,Ltd</t>
+  </si>
+  <si>
+    <t>802514</t>
+  </si>
+  <si>
+    <t>Cytec Process Materials (CA) Inc.</t>
+  </si>
+  <si>
+    <t>803303</t>
+  </si>
+  <si>
+    <t>Asahi Kinzoku Kogyo Inc.</t>
+  </si>
+  <si>
+    <t>803312</t>
+  </si>
+  <si>
+    <t>C.E. Machine Company, Inc.</t>
+  </si>
+  <si>
+    <t>803360</t>
+  </si>
+  <si>
+    <t>Daehwa Aerospace Industries Co., Ltd.</t>
+  </si>
+  <si>
+    <t>205090</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">赢创特种化学（上海）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Evonik Specialty Chemicals (Shanghai) Co.Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>212740</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美蓓亚贸易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Minebea (Hong Kong) Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>803311</t>
+  </si>
+  <si>
+    <t>United Machine Co.Inc.</t>
+  </si>
+  <si>
+    <t>261193</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">威格斯高性能材料贸易（上海）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Victrex High-performance Materials (Shanghai) Co., Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>131621</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国航发北京航空材料研究院</t>
+    </r>
+  </si>
+  <si>
+    <t>243040</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">阿莫森航空安全器材（重庆）有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AMSAFE AVIATION (CHONGQING)LIMITED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>203190</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深圳市伊天行技术有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SHENZHEN E-AERO TECHNOLOGY CO.,LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>800451</t>
+  </si>
+  <si>
+    <t>Pimalco, Inc.</t>
+  </si>
+  <si>
+    <t>803310</t>
+  </si>
+  <si>
+    <r>
+      <t>Arconic Lafayette LLC</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>248177</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海旭颉贸易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SHANGHAI XU XIE TRADING (HONGKONG) CO., LIMITED</t>
+    </r>
+  </si>
+  <si>
+    <t>803309</t>
+  </si>
+  <si>
+    <t>United Tool &amp; Die Co.</t>
+  </si>
+  <si>
+    <t>803175</t>
+  </si>
+  <si>
+    <t>SeAH Aerospace &amp; Defense Co.,Ltd.</t>
+  </si>
+  <si>
+    <t>261196</t>
+  </si>
+  <si>
+    <t>江苏富浩电子科技有限公司</t>
+  </si>
+  <si>
+    <t>802093</t>
+  </si>
+  <si>
+    <t>MASON ELECTRIC COMPANY</t>
+  </si>
+  <si>
+    <t>803308</t>
+  </si>
+  <si>
+    <t>JUDD WIRE, INC.</t>
+  </si>
+  <si>
+    <t>802738</t>
+  </si>
+  <si>
+    <t>Boeing Distribution Services Inc.</t>
+  </si>
+  <si>
+    <t>261195</t>
+  </si>
+  <si>
+    <t>上海锦峰电子仪表公司</t>
+  </si>
+  <si>
+    <t>260956</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">耐克森香港有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nexans Hong Kong Limited</t>
+    </r>
+  </si>
+  <si>
+    <t>803301</t>
+  </si>
+  <si>
+    <t>Aernnova Aerospace, S.A.U.</t>
+  </si>
+  <si>
+    <t>803359</t>
+  </si>
+  <si>
+    <t>Akzo Nobel Car Refinishes B.V.</t>
+  </si>
+  <si>
+    <t>803300</t>
+  </si>
+  <si>
+    <t>Eibar Precision Casting, S.L</t>
+  </si>
+  <si>
+    <t>801117</t>
+  </si>
+  <si>
+    <t>Arlington International Aviation Products, LLC</t>
+  </si>
+  <si>
+    <t>803343</t>
+  </si>
+  <si>
+    <t>Arnprior Aerospace Montreal Inc.</t>
+  </si>
+  <si>
+    <t>802869</t>
+  </si>
+  <si>
+    <t>Aviation Devices&amp;Electronic Components, LLC(AV-DEC)</t>
+  </si>
+  <si>
+    <t>803299</t>
+  </si>
+  <si>
+    <t>Aernnova Aerospace S.A.U-Burulan, S.A.</t>
+  </si>
+  <si>
+    <t>803342</t>
+  </si>
+  <si>
+    <t>Airbus Canada Limited artnership</t>
+  </si>
+  <si>
+    <t>801643</t>
+  </si>
+  <si>
+    <t>Constellium Rolled Products Ravenswood, LLC</t>
+  </si>
+  <si>
+    <t>803341</t>
+  </si>
+  <si>
+    <t>Delastek,Inc.</t>
+  </si>
+  <si>
+    <t>803371</t>
+  </si>
+  <si>
+    <t>G K M(Aerospace)Ltd</t>
+  </si>
+  <si>
+    <t>801088</t>
+  </si>
+  <si>
+    <t>Hi-Temp Insulation, INC.</t>
+  </si>
+  <si>
+    <t>803346</t>
+  </si>
+  <si>
+    <t>Hutchinson Seal De Mexico Aerospace, Defense, Industry and Precision Sealing Systems</t>
+  </si>
+  <si>
+    <t>802711</t>
+  </si>
+  <si>
+    <t>Hutchinson ESPA</t>
+  </si>
+  <si>
+    <t>802637</t>
+  </si>
+  <si>
+    <t>Hydraflow</t>
+  </si>
+  <si>
+    <t>803289</t>
+  </si>
+  <si>
+    <t>Icon Aerospace Technology Ltd</t>
+  </si>
+  <si>
+    <t>803340</t>
+  </si>
+  <si>
+    <t>Mesotec Inc.</t>
+  </si>
+  <si>
+    <t>803339</t>
+  </si>
+  <si>
+    <r>
+      <t>MTI PolyFab Inc.-Aerospace Division</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>803338</t>
+  </si>
+  <si>
+    <t>Noranco Inc.-Woodbridge Division</t>
+  </si>
+  <si>
+    <t>803288</t>
+  </si>
+  <si>
+    <t>Redcliffe Precision Ltd</t>
+  </si>
+  <si>
+    <t>802826</t>
+  </si>
+  <si>
+    <t>RBC Aircraft products,inc.</t>
+  </si>
+  <si>
+    <t>803123</t>
+  </si>
+  <si>
+    <t>Saint-Gobain Performance Plastics</t>
+  </si>
+  <si>
+    <t>803366</t>
+  </si>
+  <si>
+    <t>Titeflex Europe</t>
+  </si>
+  <si>
+    <t>802123</t>
+  </si>
+  <si>
+    <t>TRESSE METALLIQUE J.FORISSIER</t>
+  </si>
+  <si>
+    <t>803337</t>
+  </si>
+  <si>
+    <t>Tristar Coatings Ltd.</t>
+  </si>
+  <si>
+    <t>803307</t>
+  </si>
+  <si>
+    <t>Triumph Insulation Systems, LLC</t>
+  </si>
+  <si>
+    <t>260955</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>戈尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>W.L.Gore and Associates (Hong Kong) Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>228526</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">北京科爱工贸有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Beijing Keyair Industry &amp;Trade Co., Ltd</t>
+    </r>
+  </si>
+  <si>
+    <t>214767</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">大连义邦科技有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DaLian YiBang Science and Technology Co.,Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>800653</t>
+  </si>
+  <si>
+    <t>CAM-TAG Industries Inc.</t>
+  </si>
+  <si>
+    <t>801592</t>
+  </si>
+  <si>
+    <t>MAPAERO</t>
+  </si>
+  <si>
+    <t>802265</t>
+  </si>
+  <si>
+    <t>FACC Operations GmbH</t>
+  </si>
+  <si>
+    <t>217944</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
+        <charset val="134"/>
+      </rPr>
+      <t>北京四环建华标牌厂</t>
+    </r>
+  </si>
+  <si>
+    <t>260954</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诺万国际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Noovan International (Hongkong) Company Limited.</t>
+    </r>
+  </si>
+  <si>
+    <t>802303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meggitt Aerospace Ltd. T/A Meggitt Polymers &amp; Composites </t>
+  </si>
+  <si>
+    <t>131406</t>
+  </si>
+  <si>
+    <t>中国航空工业供销中南有限公司</t>
+  </si>
+  <si>
+    <t>254643</t>
+  </si>
+  <si>
+    <t>上海赛飞航空线缆制造有限公司</t>
+  </si>
+  <si>
+    <t>803336</t>
+  </si>
+  <si>
+    <t>Heiplex Inc.</t>
+  </si>
+  <si>
+    <t>261192</t>
+  </si>
+  <si>
+    <t>烟台锦泰国际贸易有限公司</t>
+  </si>
+  <si>
+    <t>200134</t>
+  </si>
+  <si>
+    <t>武汉市工程塑料有限公司</t>
+  </si>
+  <si>
+    <t>800442</t>
+  </si>
+  <si>
+    <t>Hexcel Corporation</t>
+  </si>
+  <si>
+    <t>802818</t>
+  </si>
+  <si>
+    <t>Avicast Inc.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">江苏精航捷拓航空制造科技有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Jiangsu Joint-Element Tech Co.,Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>Arconic Davenport LLC</t>
+  </si>
+  <si>
+    <t>修瑞国际贸易（上海）有限公司
+Supreme Trade Co.,Ltd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">埃尔科技有限公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alvin Tech Co. Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">西南铝业（集团）有限责任公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SOUTHWEST ALUMINUM(GROUP)CO.,LTD.</t>
+    </r>
+  </si>
+  <si>
+    <t>表1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>材料类别代码表</t>
+    <t>项目代码表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +3821,79 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="24">
@@ -814,7 +4182,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="281">
+  <cellStyleXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1622,8 +4990,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,20 +5016,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="281" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="282" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="283" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="2" xfId="284" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="2" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="2" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="281">
+  <cellStyles count="285">
     <cellStyle name=" 3]_x000d_&#10;Zoomed=1_x000d_&#10;Row=0_x000d_&#10;Column=0_x000d_&#10;Height=300_x000d_&#10;Width=300_x000d_&#10;FontName=細明體_x000d_&#10;FontStyle=0_x000d_&#10;FontSize=9_x000d_&#10;PrtFontName=Co 117" xfId="250"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="28"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="126"/>
@@ -1786,6 +5226,7 @@
     <cellStyle name="常规 2 5" xfId="26"/>
     <cellStyle name="常规 2 6" xfId="242"/>
     <cellStyle name="常规 2 7" xfId="257"/>
+    <cellStyle name="常规 2 8" xfId="284"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 3 2" xfId="83"/>
     <cellStyle name="常规 3 3" xfId="243"/>
@@ -1823,6 +5264,8 @@
     <cellStyle name="常规 6" xfId="6"/>
     <cellStyle name="常规 6 2" xfId="88"/>
     <cellStyle name="常规 6 3" xfId="234"/>
+    <cellStyle name="常规 62" xfId="282"/>
+    <cellStyle name="常规 65" xfId="283"/>
     <cellStyle name="常规 7" xfId="7"/>
     <cellStyle name="常规 7 10" xfId="252"/>
     <cellStyle name="常规 7 2" xfId="89"/>
@@ -1831,6 +5274,7 @@
     <cellStyle name="常规 7 76" xfId="251"/>
     <cellStyle name="常规 71" xfId="24"/>
     <cellStyle name="常规 71 6" xfId="23"/>
+    <cellStyle name="常规 73" xfId="281"/>
     <cellStyle name="常规 74" xfId="263"/>
     <cellStyle name="常规 8" xfId="8"/>
     <cellStyle name="常规 8 2" xfId="90"/>
@@ -2222,195 +5666,2174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4"/>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90">
+      <c r="A15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="58.5">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="57">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75">
+      <c r="A31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="85.5">
+      <c r="A38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45">
+      <c r="A42" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="60">
+      <c r="A44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="42">
+      <c r="A54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45">
+      <c r="A55" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30">
+      <c r="A57" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15">
+      <c r="A60" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15">
+      <c r="A61" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15">
+      <c r="A62" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="60">
+      <c r="A63" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="60">
+      <c r="A64" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="45">
+      <c r="A66" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="45">
+      <c r="A67" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15">
+      <c r="A70" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45">
+      <c r="A71" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="72">
+      <c r="A72" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30">
+      <c r="A74" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="45">
+      <c r="A75" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="72">
+      <c r="A76" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15">
+      <c r="A77" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30">
+      <c r="A80" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="85.5">
+      <c r="A81" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="60">
+      <c r="A82" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30">
+      <c r="A83" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30">
+      <c r="A84" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="45">
+      <c r="A87" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45">
+      <c r="A88" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30">
+      <c r="A89" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="45">
+      <c r="A90" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="45">
+      <c r="A91" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15">
+      <c r="A92" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="70.5">
+      <c r="A93" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30">
+      <c r="A94" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15">
+      <c r="A96" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="60">
+      <c r="A98" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="87">
+      <c r="A99" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="60">
+      <c r="A100" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="87">
+      <c r="A101" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="45">
+      <c r="A102" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30">
+      <c r="A103" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="117">
+      <c r="A104" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="102">
+      <c r="A105" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="75">
+      <c r="A106" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="30">
+      <c r="A107" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="45">
+      <c r="A108" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="45">
+      <c r="A109" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="45">
+      <c r="A110" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30">
+      <c r="A111" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="45">
+      <c r="A112" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15">
+      <c r="A113" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30">
+      <c r="A114" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="45">
+      <c r="A115" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15">
+      <c r="A116" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="60">
+      <c r="A117" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="45">
+      <c r="A118" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30">
+      <c r="A119" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="60">
+      <c r="A120" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="45">
+      <c r="A121" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30">
+      <c r="A122" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="60">
+      <c r="A123" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="115.5">
+      <c r="A124" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="45">
+      <c r="A125" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="60">
+      <c r="A126" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30">
+      <c r="A127" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30">
+      <c r="A128" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="100.5">
+      <c r="A129" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="57">
+      <c r="A130" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="45">
+      <c r="A131" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="30">
+      <c r="A132" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15">
+      <c r="A133" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="105">
+      <c r="A134" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="115.5">
+      <c r="A135" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="60">
+      <c r="A136" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="45">
+      <c r="A137" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="45">
+      <c r="A138" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="30">
+      <c r="A139" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="45">
+      <c r="A140" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15">
+      <c r="A141" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="85.5">
+      <c r="A142" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="30">
+      <c r="A143" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30">
+      <c r="A144" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30">
+      <c r="A145" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="30">
+      <c r="A146" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="75">
+      <c r="A147" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="103.5">
+      <c r="A148" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30">
+      <c r="A149" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="30">
+      <c r="A150" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30">
+      <c r="A151" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="85.5">
+      <c r="A152" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="45">
+      <c r="A153" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15">
+      <c r="A154" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="30">
+      <c r="A155" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="87">
+      <c r="A156" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="102">
+      <c r="A157" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="72">
+      <c r="A158" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="27">
+      <c r="A159" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="40.5">
+      <c r="A160" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="27">
+      <c r="A161" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="87">
+      <c r="A162" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="27">
+      <c r="A163" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="40.5">
+      <c r="A164" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="102">
+      <c r="A165" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="102">
+      <c r="A166" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="102">
+      <c r="A167" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="90">
+      <c r="A168" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="100.5">
+      <c r="A169" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="102">
+      <c r="A170" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="87">
+      <c r="A171" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="72">
+      <c r="A172" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="72">
+      <c r="A173" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="102">
+      <c r="A174" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="72">
+      <c r="A175" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="102">
+      <c r="A176" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="30">
+      <c r="A177" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="45">
+      <c r="A178" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="115.5">
+      <c r="A179" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="87">
+      <c r="A180" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="27">
+      <c r="A181" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="105">
+      <c r="A182" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="87">
+      <c r="A183" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="75">
+      <c r="A184" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="45">
+      <c r="A185" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="117">
+      <c r="A186" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="45">
+      <c r="A187" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="30">
+      <c r="A188" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="102">
+      <c r="A189" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="45">
+      <c r="A190" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="118.5">
+      <c r="A191" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="72">
+      <c r="A192" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="30">
+      <c r="A193" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="45">
+      <c r="A194" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="58.5">
+      <c r="A195" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="72">
+      <c r="A196" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="72">
+      <c r="A197" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="102">
+      <c r="A198" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="75">
+      <c r="A199" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="30">
+      <c r="A200" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="105">
+      <c r="A201" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="30">
+      <c r="A202" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="45">
+      <c r="A203" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="30">
+      <c r="A204" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="30">
+      <c r="A205" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="60">
+      <c r="A206" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="100.5">
+      <c r="A207" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="60">
+      <c r="A208" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="30">
+      <c r="A209" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="115.5">
+      <c r="A210" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="40.5">
+      <c r="A211" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="100.5">
+      <c r="A212" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="87">
+      <c r="A213" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15">
+      <c r="A214" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="25.5">
+      <c r="A215" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="103.5">
+      <c r="A216" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="25.5">
+      <c r="A217" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="38.25">
+      <c r="A218" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="25.5">
+      <c r="A219" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="38.25">
+      <c r="A220" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15">
+      <c r="A221" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="38.25">
+      <c r="A222" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="25.5">
+      <c r="A223" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B223" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="57">
+      <c r="A224" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="45">
+      <c r="A225" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="30">
+      <c r="A226" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B226" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="30">
+      <c r="A227" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="60">
+      <c r="A228" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="45">
+      <c r="A229" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="75">
+      <c r="A230" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="60">
+      <c r="A231" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="45">
+      <c r="A232" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B232" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="60">
+      <c r="A233" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15">
+      <c r="A234" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="45">
+      <c r="A235" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="30">
+      <c r="A236" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="105">
+      <c r="A237" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="30">
+      <c r="A238" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15">
+      <c r="A239" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="30">
+      <c r="A240" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15">
+      <c r="A241" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="45">
+      <c r="A242" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="45">
+      <c r="A243" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B243" s="23" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="30">
+      <c r="A244" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B244" s="24" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="30">
+      <c r="A245" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="45">
+      <c r="A246" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15">
+      <c r="A247" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B247" s="22" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="45">
+      <c r="A248" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B248" s="22" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="30">
+      <c r="A249" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="45">
+      <c r="A250" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="88.5">
+      <c r="A251" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="87">
+      <c r="A252" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="87">
+      <c r="A253" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="30">
+      <c r="A254" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15">
+      <c r="A255" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="45">
+      <c r="A256" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="27">
+      <c r="A257" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="105">
+      <c r="A258" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="75">
+      <c r="A259" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="45">
+      <c r="A260" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="45">
+      <c r="A261" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15">
+      <c r="A262" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="30">
+      <c r="A263" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B263" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="30">
+      <c r="A264" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B264" s="26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="30">
+      <c r="A265" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B265" s="26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15">
+      <c r="A266" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B266" s="26" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="85.5">
+      <c r="A267" s="27"/>
+      <c r="B267" s="26" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="30">
+      <c r="A268" s="27"/>
+      <c r="B268" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="75">
+      <c r="A269" s="27"/>
+      <c r="B269" s="26" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="57">
+      <c r="A270" s="27"/>
+      <c r="B270" s="26" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="100.5">
+      <c r="A271" s="27"/>
+      <c r="B271" s="26" t="s">
+        <v>572</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2428,16 +7851,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2458,174 +7881,174 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
